--- a/Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC2B17-D16A-403C-B6E8-7CD5A44C520C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TLSYY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18873600</v>
+        <v>18402800</v>
       </c>
       <c r="E8" s="3">
-        <v>18875000</v>
+        <v>18404200</v>
       </c>
       <c r="F8" s="3">
-        <v>18801000</v>
+        <v>18332000</v>
       </c>
       <c r="G8" s="3">
-        <v>18523100</v>
+        <v>18061100</v>
       </c>
       <c r="H8" s="3">
-        <v>18372200</v>
+        <v>17913900</v>
       </c>
       <c r="I8" s="3">
-        <v>17758300</v>
+        <v>17315400</v>
       </c>
       <c r="J8" s="3">
-        <v>18407000</v>
+        <v>17947900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6354800</v>
+        <v>6196300</v>
       </c>
       <c r="E9" s="3">
-        <v>5566100</v>
+        <v>5427200</v>
       </c>
       <c r="F9" s="3">
-        <v>5258400</v>
+        <v>5127300</v>
       </c>
       <c r="G9" s="3">
-        <v>4983400</v>
+        <v>4859100</v>
       </c>
       <c r="H9" s="3">
-        <v>4712800</v>
+        <v>4595200</v>
       </c>
       <c r="I9" s="3">
-        <v>9189700</v>
+        <v>8960500</v>
       </c>
       <c r="J9" s="3">
-        <v>4483500</v>
+        <v>4371600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12518800</v>
+        <v>12206500</v>
       </c>
       <c r="E10" s="3">
-        <v>13309000</v>
+        <v>12977000</v>
       </c>
       <c r="F10" s="3">
-        <v>13542600</v>
+        <v>13204800</v>
       </c>
       <c r="G10" s="3">
-        <v>13539700</v>
+        <v>13202000</v>
       </c>
       <c r="H10" s="3">
-        <v>13659400</v>
+        <v>13318700</v>
       </c>
       <c r="I10" s="3">
-        <v>8568600</v>
+        <v>8354900</v>
       </c>
       <c r="J10" s="3">
-        <v>13923500</v>
+        <v>13576200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,61 +889,61 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="E14" s="3">
-        <v>396200</v>
+        <v>386300</v>
       </c>
       <c r="F14" s="3">
-        <v>322900</v>
+        <v>314800</v>
       </c>
       <c r="G14" s="3">
-        <v>112500</v>
+        <v>109700</v>
       </c>
       <c r="H14" s="3">
-        <v>203900</v>
+        <v>198800</v>
       </c>
       <c r="I14" s="3">
-        <v>264800</v>
+        <v>258200</v>
       </c>
       <c r="J14" s="3">
-        <v>143700</v>
+        <v>140100</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3243400</v>
+        <v>3162500</v>
       </c>
       <c r="E15" s="3">
-        <v>3222400</v>
+        <v>3142000</v>
       </c>
       <c r="F15" s="3">
-        <v>3014900</v>
+        <v>2939700</v>
       </c>
       <c r="G15" s="3">
-        <v>2883500</v>
+        <v>2811600</v>
       </c>
       <c r="H15" s="3">
-        <v>2866100</v>
+        <v>2794600</v>
       </c>
       <c r="I15" s="3">
-        <v>6034100</v>
+        <v>5883600</v>
       </c>
       <c r="J15" s="3">
-        <v>3201300</v>
+        <v>3121500</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16738100</v>
+        <v>16320600</v>
       </c>
       <c r="E17" s="3">
-        <v>15940700</v>
+        <v>15543100</v>
       </c>
       <c r="F17" s="3">
-        <v>15046800</v>
+        <v>14671400</v>
       </c>
       <c r="G17" s="3">
-        <v>14189100</v>
+        <v>13835200</v>
       </c>
       <c r="H17" s="3">
-        <v>13866900</v>
+        <v>13521000</v>
       </c>
       <c r="I17" s="3">
-        <v>13552800</v>
+        <v>13214700</v>
       </c>
       <c r="J17" s="3">
-        <v>14276900</v>
+        <v>13920800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2135400</v>
+        <v>2082200</v>
       </c>
       <c r="E18" s="3">
-        <v>2934300</v>
+        <v>2861100</v>
       </c>
       <c r="F18" s="3">
-        <v>3754300</v>
+        <v>3660600</v>
       </c>
       <c r="G18" s="3">
-        <v>4334000</v>
+        <v>4225900</v>
       </c>
       <c r="H18" s="3">
-        <v>4505300</v>
+        <v>4392900</v>
       </c>
       <c r="I18" s="3">
-        <v>4205600</v>
+        <v>4100700</v>
       </c>
       <c r="J18" s="3">
-        <v>4130100</v>
+        <v>4027100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2062200</v>
+        <v>2010700</v>
       </c>
       <c r="E20" s="3">
-        <v>1699400</v>
+        <v>1657000</v>
       </c>
       <c r="F20" s="3">
-        <v>897600</v>
+        <v>875200</v>
       </c>
       <c r="G20" s="3">
-        <v>506500</v>
+        <v>493800</v>
       </c>
       <c r="H20" s="3">
-        <v>669000</v>
+        <v>652300</v>
       </c>
       <c r="I20" s="3">
-        <v>221300</v>
+        <v>215800</v>
       </c>
       <c r="J20" s="3">
-        <v>196600</v>
+        <v>191700</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7439200</v>
+        <v>7259400</v>
       </c>
       <c r="E21" s="3">
-        <v>7854300</v>
+        <v>7664100</v>
       </c>
       <c r="F21" s="3">
-        <v>7672300</v>
+        <v>7486300</v>
       </c>
       <c r="G21" s="3">
-        <v>7728900</v>
+        <v>7541300</v>
       </c>
       <c r="H21" s="3">
-        <v>8105500</v>
+        <v>7908500</v>
       </c>
       <c r="I21" s="3">
-        <v>7500300</v>
+        <v>7318700</v>
       </c>
       <c r="J21" s="3">
-        <v>7526300</v>
+        <v>7344300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>495600</v>
+        <v>483200</v>
       </c>
       <c r="E22" s="3">
-        <v>536200</v>
+        <v>522800</v>
       </c>
       <c r="F22" s="3">
-        <v>588500</v>
+        <v>573800</v>
       </c>
       <c r="G22" s="3">
-        <v>588500</v>
+        <v>573800</v>
       </c>
       <c r="H22" s="3">
-        <v>655200</v>
+        <v>638900</v>
       </c>
       <c r="I22" s="3">
-        <v>685000</v>
+        <v>667900</v>
       </c>
       <c r="J22" s="3">
-        <v>746600</v>
+        <v>728000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3702000</v>
+        <v>3609700</v>
       </c>
       <c r="E23" s="3">
-        <v>4097500</v>
+        <v>3995300</v>
       </c>
       <c r="F23" s="3">
-        <v>4063400</v>
+        <v>3962000</v>
       </c>
       <c r="G23" s="3">
-        <v>4252000</v>
+        <v>4146000</v>
       </c>
       <c r="H23" s="3">
-        <v>4519000</v>
+        <v>4406300</v>
       </c>
       <c r="I23" s="3">
-        <v>3741900</v>
+        <v>3648600</v>
       </c>
       <c r="J23" s="3">
-        <v>3580100</v>
+        <v>3490800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1141400</v>
+        <v>1112900</v>
       </c>
       <c r="E24" s="3">
-        <v>1286500</v>
+        <v>1254400</v>
       </c>
       <c r="F24" s="3">
-        <v>1282900</v>
+        <v>1250900</v>
       </c>
       <c r="G24" s="3">
-        <v>1266900</v>
+        <v>1235300</v>
       </c>
       <c r="H24" s="3">
-        <v>1218300</v>
+        <v>1187900</v>
       </c>
       <c r="I24" s="3">
-        <v>1100700</v>
+        <v>1073300</v>
       </c>
       <c r="J24" s="3">
-        <v>1095700</v>
+        <v>1068300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2560600</v>
+        <v>2496800</v>
       </c>
       <c r="E26" s="3">
-        <v>2811000</v>
+        <v>2740900</v>
       </c>
       <c r="F26" s="3">
-        <v>2780500</v>
+        <v>2711100</v>
       </c>
       <c r="G26" s="3">
-        <v>2985100</v>
+        <v>2910700</v>
       </c>
       <c r="H26" s="3">
-        <v>3300800</v>
+        <v>3218400</v>
       </c>
       <c r="I26" s="3">
-        <v>2641200</v>
+        <v>2575300</v>
       </c>
       <c r="J26" s="3">
-        <v>2484500</v>
+        <v>2422500</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2585300</v>
+        <v>2520800</v>
       </c>
       <c r="E27" s="3">
-        <v>2823300</v>
+        <v>2752900</v>
       </c>
       <c r="F27" s="3">
-        <v>2730400</v>
+        <v>2662300</v>
       </c>
       <c r="G27" s="3">
-        <v>2931400</v>
+        <v>2858300</v>
       </c>
       <c r="H27" s="3">
-        <v>3250000</v>
+        <v>3168900</v>
       </c>
       <c r="I27" s="3">
-        <v>2603500</v>
+        <v>2538500</v>
       </c>
       <c r="J27" s="3">
-        <v>2470700</v>
+        <v>2409000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1239,23 +1274,23 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1463500</v>
+        <v>1427000</v>
       </c>
       <c r="G29" s="3">
-        <v>138600</v>
+        <v>135100</v>
       </c>
       <c r="H29" s="3">
-        <v>-148000</v>
+        <v>-144300</v>
       </c>
       <c r="I29" s="3">
-        <v>109600</v>
+        <v>106800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2062200</v>
+        <v>-2010700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1699400</v>
+        <v>-1657000</v>
       </c>
       <c r="F32" s="3">
-        <v>-897600</v>
+        <v>-875200</v>
       </c>
       <c r="G32" s="3">
-        <v>-506500</v>
+        <v>-493800</v>
       </c>
       <c r="H32" s="3">
-        <v>-669000</v>
+        <v>-652300</v>
       </c>
       <c r="I32" s="3">
-        <v>-221300</v>
+        <v>-215800</v>
       </c>
       <c r="J32" s="3">
-        <v>-196600</v>
+        <v>-191700</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2585300</v>
+        <v>2520800</v>
       </c>
       <c r="E33" s="3">
-        <v>2823300</v>
+        <v>2752900</v>
       </c>
       <c r="F33" s="3">
-        <v>4194000</v>
+        <v>4089400</v>
       </c>
       <c r="G33" s="3">
-        <v>3070000</v>
+        <v>2993400</v>
       </c>
       <c r="H33" s="3">
-        <v>3101900</v>
+        <v>3024600</v>
       </c>
       <c r="I33" s="3">
-        <v>2713000</v>
+        <v>2645300</v>
       </c>
       <c r="J33" s="3">
-        <v>2470700</v>
+        <v>2409000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2585300</v>
+        <v>2520800</v>
       </c>
       <c r="E35" s="3">
-        <v>2823300</v>
+        <v>2752900</v>
       </c>
       <c r="F35" s="3">
-        <v>4194000</v>
+        <v>4089400</v>
       </c>
       <c r="G35" s="3">
-        <v>3070000</v>
+        <v>2993400</v>
       </c>
       <c r="H35" s="3">
-        <v>3101900</v>
+        <v>3024600</v>
       </c>
       <c r="I35" s="3">
-        <v>2713000</v>
+        <v>2645300</v>
       </c>
       <c r="J35" s="3">
-        <v>2470700</v>
+        <v>2409000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93600</v>
+        <v>536300</v>
       </c>
       <c r="E41" s="3">
-        <v>153800</v>
+        <v>813600</v>
       </c>
       <c r="F41" s="3">
-        <v>195200</v>
+        <v>190300</v>
       </c>
       <c r="G41" s="3">
-        <v>421600</v>
+        <v>411100</v>
       </c>
       <c r="H41" s="3">
-        <v>221300</v>
+        <v>215800</v>
       </c>
       <c r="I41" s="3">
-        <v>214100</v>
+        <v>208700</v>
       </c>
       <c r="J41" s="3">
-        <v>262700</v>
+        <v>256100</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>362800</v>
+        <v>353800</v>
       </c>
       <c r="E42" s="3">
-        <v>526800</v>
+        <v>513600</v>
       </c>
       <c r="F42" s="3">
-        <v>2380700</v>
+        <v>2321300</v>
       </c>
       <c r="G42" s="3">
-        <v>591400</v>
+        <v>576600</v>
       </c>
       <c r="H42" s="3">
-        <v>3789100</v>
+        <v>3694600</v>
       </c>
       <c r="I42" s="3">
-        <v>1584700</v>
+        <v>1545200</v>
       </c>
       <c r="J42" s="3">
-        <v>2599800</v>
+        <v>2535000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3645400</v>
+        <v>6110700</v>
       </c>
       <c r="E43" s="3">
-        <v>3975600</v>
+        <v>8185100</v>
       </c>
       <c r="F43" s="3">
-        <v>3443000</v>
+        <v>3357100</v>
       </c>
       <c r="G43" s="3">
-        <v>3432100</v>
+        <v>3346500</v>
       </c>
       <c r="H43" s="3">
-        <v>3028700</v>
+        <v>2953100</v>
       </c>
       <c r="I43" s="3">
-        <v>3363900</v>
+        <v>3280000</v>
       </c>
       <c r="J43" s="3">
-        <v>3416900</v>
+        <v>3331600</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>581200</v>
+        <v>914800</v>
       </c>
       <c r="E44" s="3">
-        <v>648000</v>
+        <v>963600</v>
       </c>
       <c r="F44" s="3">
-        <v>404200</v>
+        <v>394100</v>
       </c>
       <c r="G44" s="3">
-        <v>356300</v>
+        <v>347400</v>
       </c>
       <c r="H44" s="3">
-        <v>262700</v>
+        <v>256100</v>
       </c>
       <c r="I44" s="3">
-        <v>312700</v>
+        <v>304900</v>
       </c>
       <c r="J44" s="3">
-        <v>188700</v>
+        <v>184000</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>452000</v>
+        <v>406800</v>
       </c>
       <c r="E45" s="3">
-        <v>400500</v>
+        <v>381300</v>
       </c>
       <c r="F45" s="3">
-        <v>354100</v>
+        <v>345300</v>
       </c>
       <c r="G45" s="3">
-        <v>256100</v>
+        <v>249700</v>
       </c>
       <c r="H45" s="3">
-        <v>272100</v>
+        <v>265300</v>
       </c>
       <c r="I45" s="3">
-        <v>259000</v>
+        <v>252600</v>
       </c>
       <c r="J45" s="3">
-        <v>751700</v>
+        <v>733000</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5135100</v>
+        <v>5157700</v>
       </c>
       <c r="E46" s="3">
-        <v>5704700</v>
+        <v>5693300</v>
       </c>
       <c r="F46" s="3">
-        <v>6777100</v>
+        <v>6608100</v>
       </c>
       <c r="G46" s="3">
-        <v>5057400</v>
+        <v>4931300</v>
       </c>
       <c r="H46" s="3">
-        <v>7573800</v>
+        <v>7384900</v>
       </c>
       <c r="I46" s="3">
-        <v>5734400</v>
+        <v>5591400</v>
       </c>
       <c r="J46" s="3">
-        <v>7219700</v>
+        <v>7039600</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1658000</v>
+        <v>1417100</v>
       </c>
       <c r="E47" s="3">
-        <v>1106500</v>
+        <v>1765900</v>
       </c>
       <c r="F47" s="3">
-        <v>1348200</v>
+        <v>1314500</v>
       </c>
       <c r="G47" s="3">
-        <v>1094900</v>
+        <v>1067600</v>
       </c>
       <c r="H47" s="3">
-        <v>940400</v>
+        <v>916900</v>
       </c>
       <c r="I47" s="3">
-        <v>724900</v>
+        <v>706800</v>
       </c>
       <c r="J47" s="3">
-        <v>698000</v>
+        <v>680600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16041600</v>
+        <v>31282800</v>
       </c>
       <c r="E48" s="3">
-        <v>15491600</v>
+        <v>30210300</v>
       </c>
       <c r="F48" s="3">
-        <v>14933600</v>
+        <v>14561100</v>
       </c>
       <c r="G48" s="3">
-        <v>14838500</v>
+        <v>14468400</v>
       </c>
       <c r="H48" s="3">
-        <v>14397400</v>
+        <v>14038200</v>
       </c>
       <c r="I48" s="3">
-        <v>14748500</v>
+        <v>14380600</v>
       </c>
       <c r="J48" s="3">
-        <v>15071400</v>
+        <v>14695500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6661000</v>
+        <v>12099700</v>
       </c>
       <c r="E49" s="3">
-        <v>6935300</v>
+        <v>12646600</v>
       </c>
       <c r="F49" s="3">
-        <v>6696600</v>
+        <v>6529500</v>
       </c>
       <c r="G49" s="3">
-        <v>6929500</v>
+        <v>6756600</v>
       </c>
       <c r="H49" s="3">
-        <v>4630800</v>
+        <v>4515300</v>
       </c>
       <c r="I49" s="3">
-        <v>4899300</v>
+        <v>4777000</v>
       </c>
       <c r="J49" s="3">
-        <v>5386900</v>
+        <v>5252500</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1610800</v>
+        <v>2405500</v>
       </c>
       <c r="E52" s="3">
-        <v>1333700</v>
+        <v>2005800</v>
       </c>
       <c r="F52" s="3">
-        <v>1652900</v>
+        <v>1611700</v>
       </c>
       <c r="G52" s="3">
-        <v>1584700</v>
+        <v>1545200</v>
       </c>
       <c r="H52" s="3">
-        <v>1017300</v>
+        <v>991900</v>
       </c>
       <c r="I52" s="3">
-        <v>1848100</v>
+        <v>1802000</v>
       </c>
       <c r="J52" s="3">
-        <v>1432300</v>
+        <v>1396600</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31106500</v>
+        <v>30226500</v>
       </c>
       <c r="E54" s="3">
-        <v>30571700</v>
+        <v>29719200</v>
       </c>
       <c r="F54" s="3">
-        <v>31408300</v>
+        <v>30624800</v>
       </c>
       <c r="G54" s="3">
-        <v>29346900</v>
+        <v>28614800</v>
       </c>
       <c r="H54" s="3">
-        <v>28559600</v>
+        <v>27847200</v>
       </c>
       <c r="I54" s="3">
-        <v>27955200</v>
+        <v>27257900</v>
       </c>
       <c r="J54" s="3">
-        <v>28679300</v>
+        <v>27963900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1152300</v>
+        <v>4327100</v>
       </c>
       <c r="E57" s="3">
-        <v>859800</v>
+        <v>3628800</v>
       </c>
       <c r="F57" s="3">
-        <v>1063000</v>
+        <v>1036500</v>
       </c>
       <c r="G57" s="3">
-        <v>911400</v>
+        <v>888600</v>
       </c>
       <c r="H57" s="3">
-        <v>844600</v>
+        <v>823500</v>
       </c>
       <c r="I57" s="3">
-        <v>941100</v>
+        <v>917600</v>
       </c>
       <c r="J57" s="3">
-        <v>891000</v>
+        <v>868800</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1186400</v>
+        <v>2313500</v>
       </c>
       <c r="E58" s="3">
-        <v>1796600</v>
+        <v>3503500</v>
       </c>
       <c r="F58" s="3">
-        <v>1926500</v>
+        <v>1878400</v>
       </c>
       <c r="G58" s="3">
-        <v>1085500</v>
+        <v>1058400</v>
       </c>
       <c r="H58" s="3">
-        <v>1652200</v>
+        <v>1611000</v>
       </c>
       <c r="I58" s="3">
-        <v>544900</v>
+        <v>531300</v>
       </c>
       <c r="J58" s="3">
-        <v>2398800</v>
+        <v>2339000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4058300</v>
+        <v>5020400</v>
       </c>
       <c r="E59" s="3">
-        <v>3989300</v>
+        <v>4882500</v>
       </c>
       <c r="F59" s="3">
-        <v>3677300</v>
+        <v>3585600</v>
       </c>
       <c r="G59" s="3">
-        <v>3993000</v>
+        <v>3893400</v>
       </c>
       <c r="H59" s="3">
-        <v>3804300</v>
+        <v>3709400</v>
       </c>
       <c r="I59" s="3">
-        <v>3971900</v>
+        <v>3872900</v>
       </c>
       <c r="J59" s="3">
-        <v>5146000</v>
+        <v>5017600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6396900</v>
+        <v>6215400</v>
       </c>
       <c r="E60" s="3">
-        <v>6645800</v>
+        <v>6424800</v>
       </c>
       <c r="F60" s="3">
-        <v>6666800</v>
+        <v>6500500</v>
       </c>
       <c r="G60" s="3">
-        <v>5898400</v>
+        <v>5751300</v>
       </c>
       <c r="H60" s="3">
-        <v>6301100</v>
+        <v>6143900</v>
       </c>
       <c r="I60" s="3">
-        <v>5458000</v>
+        <v>5321800</v>
       </c>
       <c r="J60" s="3">
-        <v>7752300</v>
+        <v>7558900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11113300</v>
+        <v>10836100</v>
       </c>
       <c r="E61" s="3">
-        <v>10744700</v>
+        <v>10476700</v>
       </c>
       <c r="F61" s="3">
-        <v>10627900</v>
+        <v>10362800</v>
       </c>
       <c r="G61" s="3">
-        <v>10258500</v>
+        <v>10002600</v>
       </c>
       <c r="H61" s="3">
-        <v>9829700</v>
+        <v>9584500</v>
       </c>
       <c r="I61" s="3">
-        <v>10385500</v>
+        <v>10126400</v>
       </c>
       <c r="J61" s="3">
-        <v>8676700</v>
+        <v>8460300</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2702100</v>
+        <v>3760400</v>
       </c>
       <c r="E62" s="3">
-        <v>2616500</v>
+        <v>3627400</v>
       </c>
       <c r="F62" s="3">
-        <v>2571500</v>
+        <v>2507400</v>
       </c>
       <c r="G62" s="3">
-        <v>2760900</v>
+        <v>2692000</v>
       </c>
       <c r="H62" s="3">
-        <v>2299400</v>
+        <v>2242100</v>
       </c>
       <c r="I62" s="3">
-        <v>2769600</v>
+        <v>2700500</v>
       </c>
       <c r="J62" s="3">
-        <v>3960300</v>
+        <v>3861500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20202900</v>
+        <v>19874400</v>
       </c>
       <c r="E66" s="3">
-        <v>20020800</v>
+        <v>19720900</v>
       </c>
       <c r="F66" s="3">
-        <v>19892300</v>
+        <v>19396100</v>
       </c>
       <c r="G66" s="3">
-        <v>19113800</v>
+        <v>18637000</v>
       </c>
       <c r="H66" s="3">
-        <v>18530400</v>
+        <v>18068100</v>
       </c>
       <c r="I66" s="3">
-        <v>18804600</v>
+        <v>18335600</v>
       </c>
       <c r="J66" s="3">
-        <v>20349500</v>
+        <v>19841800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7770500</v>
+        <v>7214400</v>
       </c>
       <c r="E72" s="3">
-        <v>7416400</v>
+        <v>6867700</v>
       </c>
       <c r="F72" s="3">
-        <v>7720400</v>
+        <v>7527800</v>
       </c>
       <c r="G72" s="3">
-        <v>6415800</v>
+        <v>6255700</v>
       </c>
       <c r="H72" s="3">
-        <v>6030500</v>
+        <v>5880000</v>
       </c>
       <c r="I72" s="3">
-        <v>5435500</v>
+        <v>5299900</v>
       </c>
       <c r="J72" s="3">
-        <v>4849200</v>
+        <v>4728200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10903600</v>
+        <v>10352100</v>
       </c>
       <c r="E76" s="3">
-        <v>10550900</v>
+        <v>9998400</v>
       </c>
       <c r="F76" s="3">
-        <v>11516000</v>
+        <v>11228700</v>
       </c>
       <c r="G76" s="3">
-        <v>10233100</v>
+        <v>9977900</v>
       </c>
       <c r="H76" s="3">
-        <v>10029200</v>
+        <v>9779100</v>
       </c>
       <c r="I76" s="3">
-        <v>9150500</v>
+        <v>8922300</v>
       </c>
       <c r="J76" s="3">
-        <v>8329900</v>
+        <v>8122100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2585300</v>
+        <v>2520800</v>
       </c>
       <c r="E81" s="3">
-        <v>2823300</v>
+        <v>2752900</v>
       </c>
       <c r="F81" s="3">
-        <v>4194000</v>
+        <v>4089400</v>
       </c>
       <c r="G81" s="3">
-        <v>3070000</v>
+        <v>2993400</v>
       </c>
       <c r="H81" s="3">
-        <v>3101900</v>
+        <v>3024600</v>
       </c>
       <c r="I81" s="3">
-        <v>2713000</v>
+        <v>2645300</v>
       </c>
       <c r="J81" s="3">
-        <v>2470700</v>
+        <v>2409000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3243400</v>
+        <v>3162500</v>
       </c>
       <c r="E83" s="3">
-        <v>3222400</v>
+        <v>3142000</v>
       </c>
       <c r="F83" s="3">
-        <v>3022100</v>
+        <v>2946700</v>
       </c>
       <c r="G83" s="3">
-        <v>2890100</v>
+        <v>2818000</v>
       </c>
       <c r="H83" s="3">
-        <v>2932900</v>
+        <v>2859700</v>
       </c>
       <c r="I83" s="3">
-        <v>3075100</v>
+        <v>2998400</v>
       </c>
       <c r="J83" s="3">
-        <v>3201300</v>
+        <v>3121500</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6244500</v>
+        <v>6088700</v>
       </c>
       <c r="E89" s="3">
-        <v>5641500</v>
+        <v>5500800</v>
       </c>
       <c r="F89" s="3">
-        <v>5901300</v>
+        <v>5754100</v>
       </c>
       <c r="G89" s="3">
-        <v>6030500</v>
+        <v>5880000</v>
       </c>
       <c r="H89" s="3">
-        <v>6249600</v>
+        <v>6093700</v>
       </c>
       <c r="I89" s="3">
-        <v>6065300</v>
+        <v>5914000</v>
       </c>
       <c r="J89" s="3">
-        <v>6730700</v>
+        <v>6562800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3578700</v>
+        <v>-2526500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3860900</v>
+        <v>-2635400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3043200</v>
+        <v>-2158600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3702000</v>
+        <v>-2012800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2729700</v>
+        <v>-2029100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3271700</v>
+        <v>-1993700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2864700</v>
+        <v>-2126700</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2837800</v>
+        <v>-2767000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3104800</v>
+        <v>-3027400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1601400</v>
+        <v>-1561500</v>
       </c>
       <c r="G94" s="3">
-        <v>-4130100</v>
+        <v>-4027100</v>
       </c>
       <c r="H94" s="3">
-        <v>-819900</v>
+        <v>-799500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2419900</v>
+        <v>-2359500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2959700</v>
+        <v>-2885900</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2285600</v>
+        <v>-2228600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2710800</v>
+        <v>-2643200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2747800</v>
+        <v>-2679300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2684000</v>
+        <v>-2617000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2572300</v>
+        <v>-2508100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2525100</v>
+        <v>-2462100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2521500</v>
+        <v>-2458600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3638900</v>
+        <v>-3548100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4429100</v>
+        <v>-4318600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2740600</v>
+        <v>-2672200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4993600</v>
+        <v>-4869000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3214400</v>
+        <v>-3134200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4735300</v>
+        <v>-4617100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2834200</v>
+        <v>-2763500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G101" s="3">
-        <v>95800</v>
+        <v>93400</v>
       </c>
       <c r="H101" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I101" s="3">
-        <v>26100</v>
+        <v>25500</v>
       </c>
       <c r="J101" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-229300</v>
+        <v>-223600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1896700</v>
+        <v>-1849400</v>
       </c>
       <c r="F102" s="3">
-        <v>1562900</v>
+        <v>1524000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2997500</v>
+        <v>-2922700</v>
       </c>
       <c r="H102" s="3">
-        <v>2211600</v>
+        <v>2156500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1063700</v>
+        <v>-1037200</v>
       </c>
       <c r="J102" s="3">
-        <v>949100</v>
+        <v>925400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/TLSYY_YR_FIN.xlsx
+++ b/Financials/Yearly/TLSYY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC2B17-D16A-403C-B6E8-7CD5A44C520C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TLSYY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42916</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42551</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42185</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41820</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41455</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41090</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18402800</v>
+        <v>16999300</v>
       </c>
       <c r="E8" s="3">
-        <v>18404200</v>
+        <v>17395700</v>
       </c>
       <c r="F8" s="3">
-        <v>18332000</v>
+        <v>17506700</v>
       </c>
       <c r="G8" s="3">
-        <v>18061100</v>
+        <v>17438100</v>
       </c>
       <c r="H8" s="3">
-        <v>17913900</v>
+        <v>17180300</v>
       </c>
       <c r="I8" s="3">
-        <v>17315400</v>
+        <v>17040400</v>
       </c>
       <c r="J8" s="3">
+        <v>16471000</v>
+      </c>
+      <c r="K8" s="3">
         <v>17947900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6196300</v>
+        <v>6149900</v>
       </c>
       <c r="E9" s="3">
-        <v>5427200</v>
+        <v>5611500</v>
       </c>
       <c r="F9" s="3">
-        <v>5127300</v>
+        <v>5162600</v>
       </c>
       <c r="G9" s="3">
-        <v>4859100</v>
+        <v>4877200</v>
       </c>
       <c r="H9" s="3">
-        <v>4595200</v>
+        <v>4622200</v>
       </c>
       <c r="I9" s="3">
-        <v>8960500</v>
+        <v>4371100</v>
       </c>
       <c r="J9" s="3">
+        <v>8523500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4371600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12206500</v>
+        <v>10849400</v>
       </c>
       <c r="E10" s="3">
-        <v>12977000</v>
+        <v>11784200</v>
       </c>
       <c r="F10" s="3">
-        <v>13204800</v>
+        <v>12344200</v>
       </c>
       <c r="G10" s="3">
-        <v>13202000</v>
+        <v>12560900</v>
       </c>
       <c r="H10" s="3">
-        <v>13318700</v>
+        <v>12558200</v>
       </c>
       <c r="I10" s="3">
-        <v>8354900</v>
+        <v>12669200</v>
       </c>
       <c r="J10" s="3">
+        <v>7947500</v>
+      </c>
+      <c r="K10" s="3">
         <v>13576200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18400</v>
+        <v>1021600</v>
       </c>
       <c r="E14" s="3">
-        <v>386300</v>
+        <v>558600</v>
       </c>
       <c r="F14" s="3">
-        <v>314800</v>
+        <v>367500</v>
       </c>
       <c r="G14" s="3">
-        <v>109700</v>
+        <v>299500</v>
       </c>
       <c r="H14" s="3">
-        <v>198800</v>
+        <v>104300</v>
       </c>
       <c r="I14" s="3">
-        <v>258200</v>
+        <v>189100</v>
       </c>
       <c r="J14" s="3">
+        <v>245600</v>
+      </c>
+      <c r="K14" s="3">
         <v>140100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3162500</v>
+        <v>2881800</v>
       </c>
       <c r="E15" s="3">
-        <v>3142000</v>
+        <v>3008300</v>
       </c>
       <c r="F15" s="3">
-        <v>2939700</v>
+        <v>2988800</v>
       </c>
       <c r="G15" s="3">
-        <v>2811600</v>
+        <v>2796300</v>
       </c>
       <c r="H15" s="3">
-        <v>2794600</v>
+        <v>2674500</v>
       </c>
       <c r="I15" s="3">
-        <v>5883600</v>
+        <v>2658400</v>
       </c>
       <c r="J15" s="3">
+        <v>5596700</v>
+      </c>
+      <c r="K15" s="3">
         <v>3121500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16320600</v>
+        <v>16222000</v>
       </c>
       <c r="E17" s="3">
-        <v>15543100</v>
+        <v>15338300</v>
       </c>
       <c r="F17" s="3">
-        <v>14671400</v>
+        <v>14785100</v>
       </c>
       <c r="G17" s="3">
-        <v>13835200</v>
+        <v>13956000</v>
       </c>
       <c r="H17" s="3">
-        <v>13521000</v>
+        <v>13160500</v>
       </c>
       <c r="I17" s="3">
-        <v>13214700</v>
+        <v>12861700</v>
       </c>
       <c r="J17" s="3">
+        <v>12570300</v>
+      </c>
+      <c r="K17" s="3">
         <v>13920800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2082200</v>
+        <v>777300</v>
       </c>
       <c r="E18" s="3">
-        <v>2861100</v>
+        <v>2057400</v>
       </c>
       <c r="F18" s="3">
-        <v>3660600</v>
+        <v>2721600</v>
       </c>
       <c r="G18" s="3">
-        <v>4225900</v>
+        <v>3482100</v>
       </c>
       <c r="H18" s="3">
-        <v>4392900</v>
+        <v>4019800</v>
       </c>
       <c r="I18" s="3">
-        <v>4100700</v>
+        <v>4178700</v>
       </c>
       <c r="J18" s="3">
+        <v>3900700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4027100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2010700</v>
+        <v>1752500</v>
       </c>
       <c r="E20" s="3">
-        <v>1657000</v>
+        <v>1856100</v>
       </c>
       <c r="F20" s="3">
-        <v>875200</v>
+        <v>1576200</v>
       </c>
       <c r="G20" s="3">
-        <v>493800</v>
+        <v>832500</v>
       </c>
       <c r="H20" s="3">
-        <v>652300</v>
+        <v>469800</v>
       </c>
       <c r="I20" s="3">
-        <v>215800</v>
+        <v>620500</v>
       </c>
       <c r="J20" s="3">
+        <v>205300</v>
+      </c>
+      <c r="K20" s="3">
         <v>191700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7259400</v>
+        <v>5418000</v>
       </c>
       <c r="E21" s="3">
-        <v>7664100</v>
+        <v>6928500</v>
       </c>
       <c r="F21" s="3">
-        <v>7486300</v>
+        <v>7293200</v>
       </c>
       <c r="G21" s="3">
-        <v>7541300</v>
+        <v>7123900</v>
       </c>
       <c r="H21" s="3">
-        <v>7908500</v>
+        <v>7176100</v>
       </c>
       <c r="I21" s="3">
-        <v>7318700</v>
+        <v>7525500</v>
       </c>
       <c r="J21" s="3">
+        <v>6964500</v>
+      </c>
+      <c r="K21" s="3">
         <v>7344300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>483200</v>
+        <v>462400</v>
       </c>
       <c r="E22" s="3">
-        <v>522800</v>
+        <v>454900</v>
       </c>
       <c r="F22" s="3">
-        <v>573800</v>
+        <v>497300</v>
       </c>
       <c r="G22" s="3">
-        <v>573800</v>
+        <v>545800</v>
       </c>
       <c r="H22" s="3">
-        <v>638900</v>
+        <v>545800</v>
       </c>
       <c r="I22" s="3">
-        <v>667900</v>
+        <v>607700</v>
       </c>
       <c r="J22" s="3">
+        <v>635300</v>
+      </c>
+      <c r="K22" s="3">
         <v>728000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3609700</v>
+        <v>2067500</v>
       </c>
       <c r="E23" s="3">
-        <v>3995300</v>
+        <v>3458500</v>
       </c>
       <c r="F23" s="3">
-        <v>3962000</v>
+        <v>3800400</v>
       </c>
       <c r="G23" s="3">
-        <v>4146000</v>
+        <v>3768800</v>
       </c>
       <c r="H23" s="3">
-        <v>4406300</v>
+        <v>3943800</v>
       </c>
       <c r="I23" s="3">
-        <v>3648600</v>
+        <v>4191400</v>
       </c>
       <c r="J23" s="3">
+        <v>3470700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3490800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1112900</v>
+        <v>621200</v>
       </c>
       <c r="E24" s="3">
-        <v>1254400</v>
+        <v>1064700</v>
       </c>
       <c r="F24" s="3">
-        <v>1250900</v>
+        <v>1193200</v>
       </c>
       <c r="G24" s="3">
-        <v>1235300</v>
+        <v>1189900</v>
       </c>
       <c r="H24" s="3">
-        <v>1187900</v>
+        <v>1175100</v>
       </c>
       <c r="I24" s="3">
-        <v>1073300</v>
+        <v>1130000</v>
       </c>
       <c r="J24" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1068300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2496800</v>
+        <v>1446300</v>
       </c>
       <c r="E26" s="3">
-        <v>2740900</v>
+        <v>2393900</v>
       </c>
       <c r="F26" s="3">
-        <v>2711100</v>
+        <v>2607200</v>
       </c>
       <c r="G26" s="3">
-        <v>2910700</v>
+        <v>2578900</v>
       </c>
       <c r="H26" s="3">
-        <v>3218400</v>
+        <v>2768700</v>
       </c>
       <c r="I26" s="3">
-        <v>2575300</v>
+        <v>3061500</v>
       </c>
       <c r="J26" s="3">
+        <v>2449700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2422500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2520800</v>
+        <v>1449600</v>
       </c>
       <c r="E27" s="3">
-        <v>2752900</v>
+        <v>2416700</v>
       </c>
       <c r="F27" s="3">
-        <v>2662300</v>
+        <v>2618600</v>
       </c>
       <c r="G27" s="3">
-        <v>2858300</v>
+        <v>2532500</v>
       </c>
       <c r="H27" s="3">
-        <v>3168900</v>
+        <v>2718900</v>
       </c>
       <c r="I27" s="3">
-        <v>2538500</v>
+        <v>3014400</v>
       </c>
       <c r="J27" s="3">
+        <v>2414700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2409000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>1427000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>135100</v>
+        <v>1357400</v>
       </c>
       <c r="H29" s="3">
-        <v>-144300</v>
+        <v>128500</v>
       </c>
       <c r="I29" s="3">
-        <v>106800</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>-137300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2010700</v>
+        <v>-1752500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1657000</v>
+        <v>-1856100</v>
       </c>
       <c r="F32" s="3">
-        <v>-875200</v>
+        <v>-1576200</v>
       </c>
       <c r="G32" s="3">
-        <v>-493800</v>
+        <v>-832500</v>
       </c>
       <c r="H32" s="3">
-        <v>-652300</v>
+        <v>-469800</v>
       </c>
       <c r="I32" s="3">
-        <v>-215800</v>
+        <v>-620500</v>
       </c>
       <c r="J32" s="3">
+        <v>-205300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-191700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2520800</v>
+        <v>1449600</v>
       </c>
       <c r="E33" s="3">
-        <v>2752900</v>
+        <v>2416700</v>
       </c>
       <c r="F33" s="3">
-        <v>4089400</v>
+        <v>2618600</v>
       </c>
       <c r="G33" s="3">
-        <v>2993400</v>
+        <v>3889900</v>
       </c>
       <c r="H33" s="3">
-        <v>3024600</v>
+        <v>2847500</v>
       </c>
       <c r="I33" s="3">
-        <v>2645300</v>
+        <v>2877100</v>
       </c>
       <c r="J33" s="3">
+        <v>2516300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2409000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2520800</v>
+        <v>1449600</v>
       </c>
       <c r="E35" s="3">
-        <v>2752900</v>
+        <v>2416700</v>
       </c>
       <c r="F35" s="3">
-        <v>4089400</v>
+        <v>2618600</v>
       </c>
       <c r="G35" s="3">
-        <v>2993400</v>
+        <v>3889900</v>
       </c>
       <c r="H35" s="3">
-        <v>3024600</v>
+        <v>2847500</v>
       </c>
       <c r="I35" s="3">
-        <v>2645300</v>
+        <v>2877100</v>
       </c>
       <c r="J35" s="3">
+        <v>2516300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2409000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42916</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42551</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42185</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41820</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41455</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41090</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>536300</v>
+        <v>147400</v>
       </c>
       <c r="E41" s="3">
-        <v>813600</v>
+        <v>86800</v>
       </c>
       <c r="F41" s="3">
-        <v>190300</v>
+        <v>774000</v>
       </c>
       <c r="G41" s="3">
-        <v>411100</v>
+        <v>181000</v>
       </c>
       <c r="H41" s="3">
-        <v>215800</v>
+        <v>391000</v>
       </c>
       <c r="I41" s="3">
-        <v>208700</v>
+        <v>205300</v>
       </c>
       <c r="J41" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K41" s="3">
         <v>256100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>353800</v>
+        <v>259100</v>
       </c>
       <c r="E42" s="3">
-        <v>513600</v>
+        <v>336500</v>
       </c>
       <c r="F42" s="3">
-        <v>2321300</v>
+        <v>488600</v>
       </c>
       <c r="G42" s="3">
-        <v>576600</v>
+        <v>2208100</v>
       </c>
       <c r="H42" s="3">
-        <v>3694600</v>
+        <v>548500</v>
       </c>
       <c r="I42" s="3">
-        <v>1545200</v>
+        <v>3514400</v>
       </c>
       <c r="J42" s="3">
+        <v>1469800</v>
+      </c>
+      <c r="K42" s="3">
         <v>2535000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6110700</v>
+        <v>3633500</v>
       </c>
       <c r="E43" s="3">
-        <v>8185100</v>
+        <v>5812700</v>
       </c>
       <c r="F43" s="3">
-        <v>3357100</v>
+        <v>7785900</v>
       </c>
       <c r="G43" s="3">
-        <v>3346500</v>
+        <v>3193400</v>
       </c>
       <c r="H43" s="3">
-        <v>2953100</v>
+        <v>3183300</v>
       </c>
       <c r="I43" s="3">
-        <v>3280000</v>
+        <v>2809100</v>
       </c>
       <c r="J43" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3331600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>914800</v>
+        <v>301500</v>
       </c>
       <c r="E44" s="3">
-        <v>963600</v>
+        <v>331100</v>
       </c>
       <c r="F44" s="3">
-        <v>394100</v>
+        <v>916600</v>
       </c>
       <c r="G44" s="3">
-        <v>347400</v>
+        <v>374900</v>
       </c>
       <c r="H44" s="3">
-        <v>256100</v>
+        <v>330400</v>
       </c>
       <c r="I44" s="3">
-        <v>304900</v>
+        <v>243600</v>
       </c>
       <c r="J44" s="3">
+        <v>290100</v>
+      </c>
+      <c r="K44" s="3">
         <v>184000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>406800</v>
+        <v>573400</v>
       </c>
       <c r="E45" s="3">
-        <v>381300</v>
+        <v>387000</v>
       </c>
       <c r="F45" s="3">
-        <v>345300</v>
+        <v>362700</v>
       </c>
       <c r="G45" s="3">
-        <v>249700</v>
+        <v>328400</v>
       </c>
       <c r="H45" s="3">
-        <v>265300</v>
+        <v>237600</v>
       </c>
       <c r="I45" s="3">
-        <v>252600</v>
+        <v>252400</v>
       </c>
       <c r="J45" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K45" s="3">
         <v>733000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5157700</v>
+        <v>4914900</v>
       </c>
       <c r="E46" s="3">
-        <v>5693300</v>
+        <v>4906200</v>
       </c>
       <c r="F46" s="3">
-        <v>6608100</v>
+        <v>5415600</v>
       </c>
       <c r="G46" s="3">
-        <v>4931300</v>
+        <v>6285800</v>
       </c>
       <c r="H46" s="3">
-        <v>7384900</v>
+        <v>4690800</v>
       </c>
       <c r="I46" s="3">
-        <v>5591400</v>
+        <v>7024800</v>
       </c>
       <c r="J46" s="3">
+        <v>5318700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7039600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1417100</v>
+        <v>1415300</v>
       </c>
       <c r="E47" s="3">
-        <v>1765900</v>
+        <v>1348000</v>
       </c>
       <c r="F47" s="3">
-        <v>1314500</v>
+        <v>1679800</v>
       </c>
       <c r="G47" s="3">
-        <v>1067600</v>
+        <v>1250400</v>
       </c>
       <c r="H47" s="3">
-        <v>916900</v>
+        <v>1015600</v>
       </c>
       <c r="I47" s="3">
-        <v>706800</v>
+        <v>872200</v>
       </c>
       <c r="J47" s="3">
+        <v>672300</v>
+      </c>
+      <c r="K47" s="3">
         <v>680600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31282800</v>
+        <v>15029400</v>
       </c>
       <c r="E48" s="3">
-        <v>30210300</v>
+        <v>14878700</v>
       </c>
       <c r="F48" s="3">
-        <v>14561100</v>
+        <v>28737100</v>
       </c>
       <c r="G48" s="3">
-        <v>14468400</v>
+        <v>13851000</v>
       </c>
       <c r="H48" s="3">
-        <v>14038200</v>
+        <v>13762900</v>
       </c>
       <c r="I48" s="3">
-        <v>14380600</v>
+        <v>13353700</v>
       </c>
       <c r="J48" s="3">
+        <v>13679400</v>
+      </c>
+      <c r="K48" s="3">
         <v>14695500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12099700</v>
+        <v>4852300</v>
       </c>
       <c r="E49" s="3">
-        <v>12646600</v>
+        <v>6178100</v>
       </c>
       <c r="F49" s="3">
-        <v>6529500</v>
+        <v>12029900</v>
       </c>
       <c r="G49" s="3">
-        <v>6756600</v>
+        <v>6211100</v>
       </c>
       <c r="H49" s="3">
-        <v>4515300</v>
+        <v>6427200</v>
       </c>
       <c r="I49" s="3">
-        <v>4777000</v>
+        <v>4295100</v>
       </c>
       <c r="J49" s="3">
+        <v>4544100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5252500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2405500</v>
+        <v>2450400</v>
       </c>
       <c r="E52" s="3">
-        <v>2005800</v>
+        <v>2288200</v>
       </c>
       <c r="F52" s="3">
-        <v>1611700</v>
+        <v>1908000</v>
       </c>
       <c r="G52" s="3">
-        <v>1545200</v>
+        <v>1533100</v>
       </c>
       <c r="H52" s="3">
-        <v>991900</v>
+        <v>1469800</v>
       </c>
       <c r="I52" s="3">
-        <v>1802000</v>
+        <v>943500</v>
       </c>
       <c r="J52" s="3">
+        <v>1714100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1396600</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30226500</v>
+        <v>28662400</v>
       </c>
       <c r="E54" s="3">
-        <v>29719200</v>
+        <v>28752600</v>
       </c>
       <c r="F54" s="3">
-        <v>30624800</v>
+        <v>28270000</v>
       </c>
       <c r="G54" s="3">
-        <v>28614800</v>
+        <v>29131500</v>
       </c>
       <c r="H54" s="3">
-        <v>27847200</v>
+        <v>27219500</v>
       </c>
       <c r="I54" s="3">
-        <v>27257900</v>
+        <v>26489300</v>
       </c>
       <c r="J54" s="3">
+        <v>25928700</v>
+      </c>
+      <c r="K54" s="3">
         <v>27963900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4327100</v>
+        <v>571400</v>
       </c>
       <c r="E57" s="3">
-        <v>3628800</v>
+        <v>1068700</v>
       </c>
       <c r="F57" s="3">
-        <v>1036500</v>
+        <v>3451800</v>
       </c>
       <c r="G57" s="3">
-        <v>888600</v>
+        <v>985900</v>
       </c>
       <c r="H57" s="3">
-        <v>823500</v>
+        <v>845300</v>
       </c>
       <c r="I57" s="3">
-        <v>917600</v>
+        <v>783400</v>
       </c>
       <c r="J57" s="3">
+        <v>872900</v>
+      </c>
+      <c r="K57" s="3">
         <v>868800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2313500</v>
+        <v>1495400</v>
       </c>
       <c r="E58" s="3">
-        <v>3503500</v>
+        <v>1100400</v>
       </c>
       <c r="F58" s="3">
-        <v>1878400</v>
+        <v>3332700</v>
       </c>
       <c r="G58" s="3">
-        <v>1058400</v>
+        <v>1786800</v>
       </c>
       <c r="H58" s="3">
-        <v>1611000</v>
+        <v>1006800</v>
       </c>
       <c r="I58" s="3">
-        <v>531300</v>
+        <v>1532400</v>
       </c>
       <c r="J58" s="3">
+        <v>505400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2339000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5020400</v>
+        <v>4362400</v>
       </c>
       <c r="E59" s="3">
-        <v>4882500</v>
+        <v>4569000</v>
       </c>
       <c r="F59" s="3">
-        <v>3585600</v>
+        <v>4644400</v>
       </c>
       <c r="G59" s="3">
-        <v>3893400</v>
+        <v>3410800</v>
       </c>
       <c r="H59" s="3">
-        <v>3709400</v>
+        <v>3703500</v>
       </c>
       <c r="I59" s="3">
-        <v>3872900</v>
+        <v>3528500</v>
       </c>
       <c r="J59" s="3">
+        <v>3684000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5017600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6215400</v>
+        <v>6429200</v>
       </c>
       <c r="E60" s="3">
-        <v>6424800</v>
+        <v>5912300</v>
       </c>
       <c r="F60" s="3">
-        <v>6500500</v>
+        <v>6111500</v>
       </c>
       <c r="G60" s="3">
-        <v>5751300</v>
+        <v>6183500</v>
       </c>
       <c r="H60" s="3">
-        <v>6143900</v>
+        <v>5470800</v>
       </c>
       <c r="I60" s="3">
-        <v>5321800</v>
+        <v>5844300</v>
       </c>
       <c r="J60" s="3">
+        <v>5062300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7558900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10836100</v>
+        <v>10115900</v>
       </c>
       <c r="E61" s="3">
-        <v>10476700</v>
+        <v>10307700</v>
       </c>
       <c r="F61" s="3">
-        <v>10362800</v>
+        <v>9965800</v>
       </c>
       <c r="G61" s="3">
-        <v>10002600</v>
+        <v>9857400</v>
       </c>
       <c r="H61" s="3">
-        <v>9584500</v>
+        <v>9514900</v>
       </c>
       <c r="I61" s="3">
-        <v>10126400</v>
+        <v>9117100</v>
       </c>
       <c r="J61" s="3">
+        <v>9632600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8460300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3760400</v>
+        <v>2338700</v>
       </c>
       <c r="E62" s="3">
-        <v>3627400</v>
+        <v>3577000</v>
       </c>
       <c r="F62" s="3">
-        <v>2507400</v>
+        <v>3450500</v>
       </c>
       <c r="G62" s="3">
-        <v>2692000</v>
+        <v>2385100</v>
       </c>
       <c r="H62" s="3">
-        <v>2242100</v>
+        <v>2560800</v>
       </c>
       <c r="I62" s="3">
-        <v>2700500</v>
+        <v>2132700</v>
       </c>
       <c r="J62" s="3">
+        <v>2568800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3861500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19874400</v>
+        <v>18870900</v>
       </c>
       <c r="E66" s="3">
-        <v>19720900</v>
+        <v>18905200</v>
       </c>
       <c r="F66" s="3">
-        <v>19396100</v>
+        <v>18759200</v>
       </c>
       <c r="G66" s="3">
-        <v>18637000</v>
+        <v>18450300</v>
       </c>
       <c r="H66" s="3">
-        <v>18068100</v>
+        <v>17728200</v>
       </c>
       <c r="I66" s="3">
-        <v>18335600</v>
+        <v>17187100</v>
       </c>
       <c r="J66" s="3">
+        <v>17441500</v>
+      </c>
+      <c r="K66" s="3">
         <v>19841800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7214400</v>
+        <v>6833000</v>
       </c>
       <c r="E72" s="3">
-        <v>6867700</v>
+        <v>6950700</v>
       </c>
       <c r="F72" s="3">
-        <v>7527800</v>
+        <v>6532800</v>
       </c>
       <c r="G72" s="3">
-        <v>6255700</v>
+        <v>7160700</v>
       </c>
       <c r="H72" s="3">
-        <v>5880000</v>
+        <v>5950700</v>
       </c>
       <c r="I72" s="3">
-        <v>5299900</v>
+        <v>5593300</v>
       </c>
       <c r="J72" s="3">
+        <v>5041400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4728200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10352100</v>
+        <v>9791500</v>
       </c>
       <c r="E76" s="3">
-        <v>9998400</v>
+        <v>9847300</v>
       </c>
       <c r="F76" s="3">
-        <v>11228700</v>
+        <v>9510800</v>
       </c>
       <c r="G76" s="3">
-        <v>9977900</v>
+        <v>10681200</v>
       </c>
       <c r="H76" s="3">
-        <v>9779100</v>
+        <v>9491300</v>
       </c>
       <c r="I76" s="3">
-        <v>8922300</v>
+        <v>9302200</v>
       </c>
       <c r="J76" s="3">
+        <v>8487200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8122100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42916</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42551</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42185</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41820</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41455</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41090</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2520800</v>
+        <v>1449600</v>
       </c>
       <c r="E81" s="3">
-        <v>2752900</v>
+        <v>2416700</v>
       </c>
       <c r="F81" s="3">
-        <v>4089400</v>
+        <v>2618600</v>
       </c>
       <c r="G81" s="3">
-        <v>2993400</v>
+        <v>3889900</v>
       </c>
       <c r="H81" s="3">
-        <v>3024600</v>
+        <v>2847500</v>
       </c>
       <c r="I81" s="3">
-        <v>2645300</v>
+        <v>2877100</v>
       </c>
       <c r="J81" s="3">
+        <v>2516300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2409000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3162500</v>
+        <v>2881800</v>
       </c>
       <c r="E83" s="3">
-        <v>3142000</v>
+        <v>3008300</v>
       </c>
       <c r="F83" s="3">
-        <v>2946700</v>
+        <v>2988800</v>
       </c>
       <c r="G83" s="3">
-        <v>2818000</v>
+        <v>2803000</v>
       </c>
       <c r="H83" s="3">
-        <v>2859700</v>
+        <v>2680600</v>
       </c>
       <c r="I83" s="3">
-        <v>2998400</v>
+        <v>2720300</v>
       </c>
       <c r="J83" s="3">
+        <v>2852200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3121500</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6088700</v>
+        <v>4497700</v>
       </c>
       <c r="E89" s="3">
-        <v>5500800</v>
+        <v>5791800</v>
       </c>
       <c r="F89" s="3">
-        <v>5754100</v>
+        <v>5232600</v>
       </c>
       <c r="G89" s="3">
-        <v>5880000</v>
+        <v>5473500</v>
       </c>
       <c r="H89" s="3">
-        <v>6093700</v>
+        <v>5593300</v>
       </c>
       <c r="I89" s="3">
-        <v>5914000</v>
+        <v>5796500</v>
       </c>
       <c r="J89" s="3">
+        <v>5625600</v>
+      </c>
+      <c r="K89" s="3">
         <v>6562800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2526500</v>
+        <v>-2177200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2635400</v>
+        <v>-2403300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2158600</v>
+        <v>-2506900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2012800</v>
+        <v>-2053300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2029100</v>
+        <v>-1914700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1993700</v>
+        <v>-1930200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1896500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2126700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2767000</v>
+        <v>-2432900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3027400</v>
+        <v>-2632100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1561500</v>
+        <v>-2879800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4027100</v>
+        <v>-1485300</v>
       </c>
       <c r="H94" s="3">
-        <v>-799500</v>
+        <v>-3830700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2359500</v>
+        <v>-760500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2244500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2885900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2228600</v>
+        <v>-1520300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2643200</v>
+        <v>-2120000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2679300</v>
+        <v>-2514300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2617000</v>
+        <v>-2548700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2508100</v>
+        <v>-2489400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2462100</v>
+        <v>-2385800</v>
       </c>
       <c r="J96" s="3">
+        <v>-2342000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2458600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3548100</v>
+        <v>-2078200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4318600</v>
+        <v>-3375100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2672200</v>
+        <v>-4108000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4869000</v>
+        <v>-2541900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3134200</v>
+        <v>-4631600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4617100</v>
+        <v>-2981400</v>
       </c>
       <c r="J100" s="3">
+        <v>-4392000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2763500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
-        <v>3500</v>
+        <v>-4000</v>
       </c>
       <c r="G101" s="3">
-        <v>93400</v>
+        <v>3400</v>
       </c>
       <c r="H101" s="3">
-        <v>-3500</v>
+        <v>88800</v>
       </c>
       <c r="I101" s="3">
-        <v>25500</v>
+        <v>-3400</v>
       </c>
       <c r="J101" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-223600</v>
+        <v>-10800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1849400</v>
+        <v>-212700</v>
       </c>
       <c r="F102" s="3">
-        <v>1524000</v>
+        <v>-1759200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2922700</v>
+        <v>1449600</v>
       </c>
       <c r="H102" s="3">
-        <v>2156500</v>
+        <v>-2780200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1037200</v>
+        <v>2051300</v>
       </c>
       <c r="J102" s="3">
+        <v>-986600</v>
+      </c>
+      <c r="K102" s="3">
         <v>925400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
